--- a/biology/Botanique/Gastrodia_africana/Gastrodia_africana.xlsx
+++ b/biology/Botanique/Gastrodia_africana/Gastrodia_africana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gastrodia africana Kraenzl. est une espèce de plantes du genre Gastrodia, de la famille des Orchidaceae[2],[3]. Endémique du Cameroun, c'est la seule représentante du genre en Afrique[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gastrodia africana Kraenzl. est une espèce de plantes du genre Gastrodia, de la famille des Orchidaceae,. Endémique du Cameroun, c'est la seule représentante du genre en Afrique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est une plante à fleur, du groupe de monocotylédone[3]. Elle a une taille d’environ 3 à 4 cm, et a des rhizomes tubéreux. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une plante à fleur, du groupe de monocotylédone. Elle a une taille d’environ 3 à 4 cm, et a des rhizomes tubéreux. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est considérée comme endémique au Cameroun, rencontrée au Mont Cameroun. Il est possible, qu’elle n’existe plus de nos jours. Elle croît dans les habitats identiques à Allanblackia gabonensis (autrefois A. monticola), Carapa grandiflora et Cola sp., à une altitude de 1100 – 1200 m[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est considérée comme endémique au Cameroun, rencontrée au Mont Cameroun. Il est possible, qu’elle n’existe plus de nos jours. Elle croît dans les habitats identiques à Allanblackia gabonensis (autrefois A. monticola), Carapa grandiflora et Cola sp., à une altitude de 1100 – 1200 m,.
 </t>
         </is>
       </c>
